--- a/Team-Data/2013-14/3-4-2013-14.xlsx
+++ b/Team-Data/2013-14/3-4-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -756,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -771,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -786,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1162,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW4" t="n">
         <v>10</v>
       </c>
-      <c r="AW4" t="n">
-        <v>11</v>
-      </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,13 +1369,13 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1341,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1496,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1520,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>0.387</v>
+        <v>0.393</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1594,10 +1661,10 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1606,7 +1673,7 @@
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
         <v>17.2</v>
@@ -1618,19 +1685,19 @@
         <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
@@ -1645,34 +1712,34 @@
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
         <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>30</v>
@@ -1684,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1696,7 +1763,7 @@
         <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1705,13 +1772,13 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -1836,19 +1903,19 @@
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1857,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1899,13 +1966,13 @@
         <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2033,10 +2100,10 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>19</v>
@@ -2069,13 +2136,13 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>6</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -2248,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2331,43 +2398,43 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R11" t="n">
         <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U11" t="n">
         <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
@@ -2376,13 +2443,13 @@
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2412,13 +2479,13 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2448,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2522,10 +2589,10 @@
         <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2537,46 +2604,46 @@
         <v>45.3</v>
       </c>
       <c r="U12" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
         <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB12" t="n">
         <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2585,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="n">
         <v>6</v>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
         <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.767</v>
+        <v>0.78</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2698,19 +2765,19 @@
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
         <v>18.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
         <v>35.2</v>
@@ -2719,16 +2786,16 @@
         <v>45.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.6</v>
@@ -2743,10 +2810,10 @@
         <v>99.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2764,25 +2831,25 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2797,10 +2864,10 @@
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
@@ -2809,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.677</v>
+        <v>0.672</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2871,22 +2938,22 @@
         <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q14" t="n">
         <v>0.729</v>
@@ -2895,25 +2962,25 @@
         <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U14" t="n">
         <v>24.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2961,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
         <v>16</v>
@@ -2985,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J15" t="n">
         <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3062,13 +3129,13 @@
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O15" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="n">
         <v>0.75</v>
@@ -3077,16 +3144,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>6.9</v>
@@ -3095,43 +3162,43 @@
         <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC15" t="n">
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,13 +3207,13 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
         <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3155,13 +3222,13 @@
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="n">
         <v>23</v>
@@ -3173,16 +3240,16 @@
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>28</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3307,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.741</v>
+        <v>0.754</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,46 +3481,46 @@
         <v>39.3</v>
       </c>
       <c r="J17" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.511</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O17" t="n">
         <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="U17" t="n">
         <v>23.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3471,19 +3538,19 @@
         <v>104.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
@@ -3501,16 +3568,16 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>16</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3865,13 +3932,13 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN19" t="n">
         <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.393</v>
+        <v>0.383</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
@@ -3975,34 +4042,34 @@
         <v>0.378</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
         <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4011,37 +4078,37 @@
         <v>22.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
         <v>17</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK20" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4050,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
@@ -4062,7 +4129,7 @@
         <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
@@ -4071,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4089,10 +4156,10 @@
         <v>28</v>
       </c>
       <c r="BA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB20" t="n">
         <v>20</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>19</v>
       </c>
       <c r="BC20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4271,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
@@ -4336,67 +4403,67 @@
         <v>20.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O22" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P22" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.805</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T22" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
         <v>21.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4405,7 +4472,7 @@
         <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4420,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,34 +4496,34 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -4578,13 +4645,13 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4599,7 +4666,7 @@
         <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J24" t="n">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M24" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="O24" t="n">
         <v>16.8</v>
@@ -4715,40 +4782,40 @@
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T24" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
         <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.2</v>
+        <v>-10.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4772,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
         <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.583</v>
+        <v>0.593</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4873,25 +4940,25 @@
         <v>84.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
         <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P25" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4903,10 +4970,10 @@
         <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
@@ -4915,7 +4982,7 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
         <v>22</v>
@@ -4924,22 +4991,22 @@
         <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="n">
         <v>9</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4957,16 +5024,16 @@
         <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4984,25 +5051,25 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5348,13 +5415,13 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J28" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.786</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
         <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5467,16 +5534,16 @@
         <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5518,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
@@ -5533,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
         <v>11</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -5694,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6052,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-4-2013-14</t>
+          <t>2014-03-04</t>
         </is>
       </c>
     </row>
